--- a/doc/中南司机车辆信息.xlsx
+++ b/doc/中南司机车辆信息.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="211">
   <si>
     <t>username</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -848,6 +848,18 @@
   </si>
   <si>
     <t>2016-02-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15961125168</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15961125169</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15961125110</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -937,8 +949,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -951,11 +965,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1285,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="BT16" sqref="BT16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2014,6 +2030,660 @@
         <v>179</v>
       </c>
     </row>
+    <row r="4" spans="1:72">
+      <c r="A4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT4" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72">
+      <c r="A5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BK5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BO5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BS5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT5" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72">
+      <c r="A6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BO6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BS6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT6" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/中南司机车辆信息.xlsx
+++ b/doc/中南司机车辆信息.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="208">
   <si>
     <t>username</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -848,18 +848,6 @@
   </si>
   <si>
     <t>2016-02-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15961125168</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15961125169</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15961125110</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -949,10 +937,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -965,13 +951,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="5">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1301,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT6"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="BT16" sqref="BT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2030,660 +2014,6 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
-      <c r="A4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB4" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="BF4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="BI4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BL4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM4" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="BN4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="BO4" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="BQ4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="BR4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="BS4" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="BT4" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:72">
-      <c r="A5" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="BF5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BG5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH5" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="BI5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BJ5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK5" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BL5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="BN5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="BO5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="BQ5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="BR5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="BS5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="BT5" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:72">
-      <c r="A6" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BL6" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM6" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="BO6" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP6" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="BQ6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="BR6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="BS6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="BT6" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
